--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -436,114 +436,114 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Bulbasaur</t>
+          <t>Voltorb</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ivysaur</t>
+          <t>Koffing</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Venusaur</t>
+          <t>Trevenant</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VenusaurMega Venusaur</t>
+          <t>Pikachu</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Charmander</t>
+          <t>Machoke</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Charmeleon</t>
+          <t>Drapion</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Charizard</t>
+          <t>Pansear</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CharizardMega Charizard X</t>
+          <t>Meditite</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CharizardMega Charizard Y</t>
+          <t>Tyrantrum</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Squirtle</t>
+          <t>Snubbull</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Wartortle</t>
+          <t>Wobbuffet</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Blastoise</t>
+          <t>Shelmet</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>BlastoiseMega Blastoise</t>
+          <t>Reshiram</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Caterpie</t>
+          <t>AbomasnowMega Abomasnow</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Metapod</t>
+          <t>Liepard</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Butterfree</t>
+          <t>Pelipper</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Weedle</t>
+          <t>Audino</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Kakuna</t>
+          <t>Aipom</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Beedrill</t>
+          <t>Sceptile</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>BeedrillMega Beedrill</t>
+          <t>KyuremWhite Kyurem</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Pidgey</t>
+          <t>Dugtrio</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Bulbasaur</t>
+          <t>Voltorb</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -613,7 +613,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ivysaur</t>
+          <t>Koffing</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -683,7 +683,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Venusaur</t>
+          <t>Trevenant</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -753,7 +753,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>VenusaurMega Venusaur</t>
+          <t>Pikachu</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -823,7 +823,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Charmander</t>
+          <t>Machoke</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -893,7 +893,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Charmeleon</t>
+          <t>Drapion</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -963,7 +963,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Charizard</t>
+          <t>Pansear</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1033,7 +1033,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CharizardMega Charizard X</t>
+          <t>Meditite</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1103,7 +1103,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CharizardMega Charizard Y</t>
+          <t>Tyrantrum</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1173,7 +1173,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Squirtle</t>
+          <t>Snubbull</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1243,7 +1243,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Wartortle</t>
+          <t>Wobbuffet</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1313,7 +1313,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Blastoise</t>
+          <t>Shelmet</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1383,7 +1383,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BlastoiseMega Blastoise</t>
+          <t>Reshiram</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1453,7 +1453,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Caterpie</t>
+          <t>AbomasnowMega Abomasnow</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1523,7 +1523,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Metapod</t>
+          <t>Liepard</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1593,7 +1593,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Butterfree</t>
+          <t>Pelipper</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1663,7 +1663,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Weedle</t>
+          <t>Audino</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1733,7 +1733,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Kakuna</t>
+          <t>Aipom</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1803,7 +1803,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Beedrill</t>
+          <t>Sceptile</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1873,7 +1873,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>BeedrillMega Beedrill</t>
+          <t>KyuremWhite Kyurem</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1943,7 +1943,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Pidgey</t>
+          <t>Dugtrio</t>
         </is>
       </c>
       <c r="B22" t="n">
